--- a/data/trans_orig/P12_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P12_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EAC8D51-253A-4CBD-90FA-EF2EC05CF994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F46962C-3B5D-4A56-A57E-F47982C091FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4867004B-5A1E-47E4-8F1F-8A3EDC8726DF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2265A095-BC31-4D8E-AF1E-1451D36B0A3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -311,163 +311,163 @@
     <t>18,63%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>31,67%</t>
   </si>
   <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
   </si>
   <si>
     <t>80,81%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>83,6%</t>
   </si>
   <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>85,23%</t>
   </si>
   <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>15,76%</t>
@@ -482,16 +482,19 @@
     <t>25,87%</t>
   </si>
   <si>
-    <t>27,37%</t>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>84,24%</t>
@@ -506,16 +509,19 @@
     <t>74,13%</t>
   </si>
   <si>
-    <t>72,63%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2015 (Tasa respuesta: 99,88%)</t>
@@ -524,73 +530,73 @@
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>25,19%</t>
   </si>
   <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
   </si>
   <si>
     <t>80,89%</t>
   </si>
   <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>74,81%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>77,44%</t>
   </si>
   <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>11,35%</t>
@@ -599,31 +605,31 @@
     <t>10,4%</t>
   </si>
   <si>
-    <t>12,33%</t>
+    <t>12,51%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
   </si>
   <si>
     <t>88,65%</t>
   </si>
   <si>
-    <t>87,67%</t>
+    <t>87,49%</t>
   </si>
   <si>
     <t>89,6%</t>
@@ -632,61 +638,55 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>9,61%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>90,39%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>10,56%</t>
+    <t>10,62%</t>
   </si>
   <si>
     <t>12,8%</t>
@@ -695,16 +695,19 @@
     <t>16,65%</t>
   </si>
   <si>
-    <t>15,47%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>14,2%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>88,36%</t>
@@ -713,22 +716,25 @@
     <t>87,2%</t>
   </si>
   <si>
-    <t>89,44%</t>
+    <t>89,38%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>84,53%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>85,8%</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
@@ -737,199 +743,211 @@
     <t>18,35%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>26,45%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>23,27%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>81,65%</t>
   </si>
   <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>73,55%</t>
   </si>
   <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>76,73%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>24,82%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>75,18%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>86,68%</t>
   </si>
   <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
   </si>
   <si>
     <t>82,45%</t>
   </si>
   <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>86,4%</t>
   </si>
   <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629F2608-BD8A-4BF1-8CB7-D0A8F44288E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2ED785-AE5C-47C3-B01C-BA9688DAF20C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A61F21-C54D-4621-A523-FA5BC5A65DDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D22AE4-0399-4173-86E4-ADC1A1D94EE9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2699,10 +2717,10 @@
         <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1354</v>
@@ -2711,13 +2729,13 @@
         <v>1455963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2750,13 @@
         <v>2878195</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2433</v>
@@ -2747,13 +2765,13 @@
         <v>2628726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5132</v>
@@ -2762,13 +2780,13 @@
         <v>5506921</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7C2CD9-BCEE-4374-A936-B77D52DEE3C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C19130-D8CE-40D5-BADF-66EBB947A237}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2985,13 @@
         <v>144125</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>221</v>
@@ -2982,13 +3000,13 @@
         <v>250017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>368</v>
@@ -2997,13 +3015,13 @@
         <v>394142</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3036,13 @@
         <v>610222</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>669</v>
@@ -3033,13 +3051,13 @@
         <v>742527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1284</v>
@@ -3048,13 +3066,13 @@
         <v>1352749</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3140,13 @@
         <v>198788</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>250</v>
@@ -3137,13 +3155,13 @@
         <v>262220</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>434</v>
@@ -3152,13 +3170,13 @@
         <v>461008</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3191,13 @@
         <v>1875425</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1656</v>
@@ -3188,13 +3206,13 @@
         <v>1724030</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3422</v>
@@ -3203,13 +3221,13 @@
         <v>3599456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3295,13 @@
         <v>50153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -3292,13 +3310,13 @@
         <v>74892</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -3307,13 +3325,13 @@
         <v>125046</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3346,13 @@
         <v>496733</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>451</v>
@@ -3343,13 +3361,13 @@
         <v>472297</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>906</v>
@@ -3358,10 +3376,10 @@
         <v>969030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>213</v>
@@ -3453,7 +3471,7 @@
         <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>921</v>
@@ -3462,13 +3480,13 @@
         <v>980195</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3501,13 @@
         <v>2982380</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2776</v>
@@ -3498,13 +3516,13 @@
         <v>2938855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>5612</v>
@@ -3513,13 +3531,13 @@
         <v>5921235</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE970F0-FA99-4B4A-AE47-432849C03E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AADF70-9386-4E96-B569-49BC4533C75F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3736,13 @@
         <v>99245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>381</v>
@@ -3733,13 +3751,13 @@
         <v>221110</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>511</v>
@@ -3748,13 +3766,13 @@
         <v>320355</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3787,13 @@
         <v>441552</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>1046</v>
@@ -3784,13 +3802,13 @@
         <v>614843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1606</v>
@@ -3799,13 +3817,13 @@
         <v>1056395</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3891,13 @@
         <v>270337</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>579</v>
@@ -3888,28 +3906,28 @@
         <v>483446</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>863</v>
       </c>
       <c r="N7" s="7">
-        <v>753783</v>
+        <v>753784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3942,13 @@
         <v>1891685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2340</v>
@@ -3939,13 +3957,13 @@
         <v>1764964</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>4048</v>
@@ -3954,13 +3972,13 @@
         <v>3656649</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,7 +4020,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4410432</v>
+        <v>4410433</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4028,13 +4046,13 @@
         <v>89665</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>187</v>
@@ -4043,13 +4061,13 @@
         <v>125266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>286</v>
@@ -4058,13 +4076,13 @@
         <v>214930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4097,13 @@
         <v>583374</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>817</v>
@@ -4094,13 +4112,13 @@
         <v>588620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1399</v>
@@ -4109,13 +4127,13 @@
         <v>1171996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4201,13 @@
         <v>459246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>1147</v>
@@ -4198,13 +4216,13 @@
         <v>829822</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>1660</v>
@@ -4213,13 +4231,13 @@
         <v>1289068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4252,13 @@
         <v>2916612</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>4203</v>
@@ -4249,13 +4267,13 @@
         <v>2968428</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>7053</v>
@@ -4264,13 +4282,13 @@
         <v>5885040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P12_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P12_1_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F46962C-3B5D-4A56-A57E-F47982C091FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{516C0434-0DA6-4676-A915-6DE26E742002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2265A095-BC31-4D8E-AF1E-1451D36B0A3A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C58B107-FEF4-4C4D-BEF3-078CF17D5989}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>22,58%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>77,42%</t>
   </si>
   <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>14,18%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>85,82%</t>
   </si>
   <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>79,78%</t>
   </si>
   <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,103 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>85,22%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>80,75%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>83,15%</t>
   </si>
   <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,73 +305,73 @@
     <t>18,63%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>31,67%</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
   </si>
   <si>
     <t>19,19%</t>
@@ -386,31 +380,31 @@
     <t>17,85%</t>
   </si>
   <si>
-    <t>20,37%</t>
+    <t>20,57%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>80,81%</t>
   </si>
   <si>
-    <t>79,63%</t>
+    <t>79,43%</t>
   </si>
   <si>
     <t>82,15%</t>
@@ -419,520 +413,508 @@
     <t>13,22%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>83,6%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>85,23%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>15,76%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>25,87%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>19,86%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>21,85%</t>
   </si>
   <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>78,15%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
   </si>
   <si>
     <t>69,86%</t>
@@ -1359,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2ED785-AE5C-47C3-B01C-BA9688DAF20C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE6DCEA-F58D-485E-AAB8-10B6798ECFE2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1635,7 +1617,7 @@
         <v>238</v>
       </c>
       <c r="D7" s="7">
-        <v>240162</v>
+        <v>240163</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1737,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1963,13 +1945,13 @@
         <v>756042</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1287</v>
@@ -1978,13 +1960,13 @@
         <v>1310710</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,16 +1978,16 @@
         <v>2665</v>
       </c>
       <c r="D14" s="7">
-        <v>2721876</v>
+        <v>2721875</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2559</v>
@@ -2014,28 +1996,28 @@
         <v>2623156</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5224</v>
       </c>
       <c r="N14" s="7">
-        <v>5345030</v>
+        <v>5345031</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2077,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2091,7 +2073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D22AE4-0399-4173-86E4-ADC1A1D94EE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5517027E-6128-461C-AD6F-204A30C9B9DF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2127,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2234,13 +2216,13 @@
         <v>181160</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>394</v>
@@ -2249,13 +2231,13 @@
         <v>423116</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>561</v>
@@ -2264,13 +2246,13 @@
         <v>604276</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2267,13 @@
         <v>791486</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>851</v>
@@ -2300,13 +2282,13 @@
         <v>912690</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1590</v>
@@ -2315,13 +2297,13 @@
         <v>1704176</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2371,13 @@
         <v>293695</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>390</v>
@@ -2404,13 +2386,13 @@
         <v>419346</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>669</v>
@@ -2419,13 +2401,13 @@
         <v>713041</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2422,13 @@
         <v>1669131</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1241</v>
@@ -2455,13 +2437,13 @@
         <v>1333512</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2817</v>
@@ -2470,13 +2452,13 @@
         <v>3002643</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2526,13 @@
         <v>63604</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -2559,13 +2541,13 @@
         <v>75043</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -2574,13 +2556,13 @@
         <v>138647</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2577,13 @@
         <v>417577</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>341</v>
@@ -2610,13 +2592,13 @@
         <v>382524</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>725</v>
@@ -2625,13 +2607,13 @@
         <v>800101</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,28 +2681,28 @@
         <v>538459</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>854</v>
       </c>
       <c r="I13" s="7">
-        <v>917505</v>
+        <v>917504</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1354</v>
@@ -2729,13 +2711,13 @@
         <v>1455963</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2732,13 @@
         <v>2878195</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2433</v>
@@ -2765,13 +2747,13 @@
         <v>2628726</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5132</v>
@@ -2780,13 +2762,13 @@
         <v>5506921</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2795,7 @@
         <v>3287</v>
       </c>
       <c r="I15" s="7">
-        <v>3546231</v>
+        <v>3546230</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2842,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C19130-D8CE-40D5-BADF-66EBB947A237}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530E2309-1B68-4D2E-8455-4815478AF037}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2967,13 @@
         <v>144125</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>221</v>
@@ -3000,13 +2982,13 @@
         <v>250017</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>368</v>
@@ -3015,13 +2997,13 @@
         <v>394142</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3018,13 @@
         <v>610222</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>669</v>
@@ -3051,13 +3033,13 @@
         <v>742527</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1284</v>
@@ -3066,13 +3048,13 @@
         <v>1352749</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3122,13 @@
         <v>198788</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>250</v>
@@ -3155,13 +3137,13 @@
         <v>262220</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>434</v>
@@ -3170,13 +3152,13 @@
         <v>461008</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3173,13 @@
         <v>1875425</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1656</v>
@@ -3206,13 +3188,13 @@
         <v>1724030</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3422</v>
@@ -3221,13 +3203,13 @@
         <v>3599456</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3277,13 @@
         <v>50153</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -3310,13 +3292,13 @@
         <v>74892</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -3325,13 +3307,13 @@
         <v>125046</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3328,13 @@
         <v>496733</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>451</v>
@@ -3361,13 +3343,13 @@
         <v>472297</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>906</v>
@@ -3376,10 +3358,10 @@
         <v>969030</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>213</v>
@@ -3450,13 +3432,13 @@
         <v>393066</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>544</v>
@@ -3465,13 +3447,13 @@
         <v>587129</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>921</v>
@@ -3480,13 +3462,13 @@
         <v>980195</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3483,13 @@
         <v>2982380</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>2776</v>
@@ -3516,13 +3498,13 @@
         <v>2938855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>5612</v>
@@ -3531,13 +3513,13 @@
         <v>5921235</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AADF70-9386-4E96-B569-49BC4533C75F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6AD835-53AB-424C-A21B-07204521C17C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3718,13 @@
         <v>99245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>381</v>
@@ -3751,13 +3733,13 @@
         <v>221110</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>511</v>
@@ -3766,13 +3748,13 @@
         <v>320355</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3769,13 @@
         <v>441552</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>1046</v>
@@ -3802,13 +3784,13 @@
         <v>614843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1606</v>
@@ -3817,13 +3799,13 @@
         <v>1056395</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3873,13 @@
         <v>270337</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>579</v>
@@ -3906,13 +3888,13 @@
         <v>483446</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>863</v>
@@ -3921,13 +3903,13 @@
         <v>753784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3924,13 @@
         <v>1891685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>2340</v>
@@ -3957,13 +3939,13 @@
         <v>1764964</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>4048</v>
@@ -3972,13 +3954,13 @@
         <v>3656649</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4028,13 @@
         <v>89665</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>187</v>
@@ -4061,13 +4043,13 @@
         <v>125266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>286</v>
@@ -4076,13 +4058,13 @@
         <v>214930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4079,13 @@
         <v>583374</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>817</v>
@@ -4112,13 +4094,13 @@
         <v>588620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>1399</v>
@@ -4127,13 +4109,13 @@
         <v>1171996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4183,13 @@
         <v>459246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>1147</v>
@@ -4216,13 +4198,13 @@
         <v>829822</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>1660</v>
@@ -4231,13 +4213,13 @@
         <v>1289068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4234,13 @@
         <v>2916612</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4203</v>
@@ -4267,13 +4249,13 @@
         <v>2968428</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>7053</v>
@@ -4282,13 +4264,13 @@
         <v>5885040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
